--- a/forTest.xlsx
+++ b/forTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1640" windowWidth="27760" windowHeight="15180" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="15180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,189 +24,1374 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
-  <si>
-    <t>E04153</t>
-  </si>
-  <si>
-    <t>E04154</t>
-  </si>
-  <si>
-    <t>E04155</t>
-  </si>
-  <si>
-    <t>E04157</t>
-  </si>
-  <si>
-    <t>E04158</t>
-  </si>
-  <si>
-    <t>E04159</t>
-  </si>
-  <si>
-    <t>E04160</t>
-  </si>
-  <si>
-    <t>E04161</t>
-  </si>
-  <si>
-    <t>E04163</t>
-  </si>
-  <si>
-    <t>E04164</t>
-  </si>
-  <si>
-    <t>E04165</t>
-  </si>
-  <si>
-    <t>E04168</t>
-  </si>
-  <si>
-    <t>E04170</t>
-  </si>
-  <si>
-    <t>E04171</t>
-  </si>
-  <si>
-    <t>E04172</t>
-  </si>
-  <si>
-    <t>E04177</t>
-  </si>
-  <si>
-    <t>E04178</t>
-  </si>
-  <si>
-    <t>E04179</t>
-  </si>
-  <si>
-    <t>E04180</t>
-  </si>
-  <si>
-    <t>E04181</t>
-  </si>
-  <si>
-    <t>E04182</t>
-  </si>
-  <si>
-    <t>E04185</t>
-  </si>
-  <si>
-    <t>E04186</t>
-  </si>
-  <si>
-    <t>E04187</t>
-  </si>
-  <si>
-    <t>E04189</t>
-  </si>
-  <si>
-    <t>E04190</t>
-  </si>
-  <si>
-    <t>E04191</t>
-  </si>
-  <si>
-    <t>E04192</t>
-  </si>
-  <si>
-    <t>E04194</t>
-  </si>
-  <si>
-    <t>E04195</t>
-  </si>
-  <si>
-    <t>E04196</t>
-  </si>
-  <si>
-    <t>E04197</t>
-  </si>
-  <si>
-    <t>E04198</t>
-  </si>
-  <si>
-    <t>E04199</t>
-  </si>
-  <si>
-    <t>E04206</t>
-  </si>
-  <si>
-    <t>E04209</t>
-  </si>
-  <si>
-    <t>E04210</t>
-  </si>
-  <si>
-    <t>E04211</t>
-  </si>
-  <si>
-    <t>E04215</t>
-  </si>
-  <si>
-    <t>E04216</t>
-  </si>
-  <si>
-    <t>E04217</t>
-  </si>
-  <si>
-    <t>E04218</t>
-  </si>
-  <si>
-    <t>E04220</t>
-  </si>
-  <si>
-    <t>E04221</t>
-  </si>
-  <si>
-    <t>E04222</t>
-  </si>
-  <si>
-    <t>E04223</t>
-  </si>
-  <si>
-    <t>E04224</t>
-  </si>
-  <si>
-    <t>E04228</t>
-  </si>
-  <si>
-    <t>E04230</t>
-  </si>
-  <si>
-    <t>E04232</t>
-  </si>
-  <si>
-    <t>E04319</t>
-  </si>
-  <si>
-    <t>E04324</t>
-  </si>
-  <si>
-    <t>E04327</t>
-  </si>
-  <si>
-    <t>E04334</t>
-  </si>
-  <si>
-    <t>E04341</t>
-  </si>
-  <si>
-    <t>E04354</t>
-  </si>
-  <si>
-    <t>E15690</t>
-  </si>
-  <si>
-    <t>E26705</t>
-  </si>
-  <si>
-    <t>E30443</t>
-  </si>
-  <si>
-    <t>E31635</t>
-  </si>
-  <si>
-    <t>E32679</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+  <si>
+    <t>E03229</t>
+  </si>
+  <si>
+    <t>E02778</t>
+  </si>
+  <si>
+    <t>E04877</t>
+  </si>
+  <si>
+    <t>E02729</t>
+  </si>
+  <si>
+    <t>E04920</t>
+  </si>
+  <si>
+    <t>E04933</t>
+  </si>
+  <si>
+    <t>E01956</t>
+  </si>
+  <si>
+    <t>E04822</t>
+  </si>
+  <si>
+    <t>E04820</t>
+  </si>
+  <si>
+    <t>E04815</t>
+  </si>
+  <si>
+    <t>E04810</t>
+  </si>
+  <si>
+    <t>E04809</t>
+  </si>
+  <si>
+    <t>E04807</t>
+  </si>
+  <si>
+    <t>E04803</t>
+  </si>
+  <si>
+    <t>E04952</t>
+  </si>
+  <si>
+    <t>E04830</t>
+  </si>
+  <si>
+    <t>E04834</t>
+  </si>
+  <si>
+    <t>E04841</t>
+  </si>
+  <si>
+    <t>E04846</t>
+  </si>
+  <si>
+    <t>E04849</t>
+  </si>
+  <si>
+    <t>E02417</t>
+  </si>
+  <si>
+    <t>E04853</t>
+  </si>
+  <si>
+    <t>E04855</t>
+  </si>
+  <si>
+    <t>E04856</t>
+  </si>
+  <si>
+    <t>E04858</t>
+  </si>
+  <si>
+    <t>E04859</t>
+  </si>
+  <si>
+    <t>E04861</t>
+  </si>
+  <si>
+    <t>E04869</t>
+  </si>
+  <si>
+    <t>E04873</t>
+  </si>
+  <si>
+    <t>E04889</t>
+  </si>
+  <si>
+    <t>E04891</t>
+  </si>
+  <si>
+    <t>E04894</t>
+  </si>
+  <si>
+    <t>E04911</t>
+  </si>
+  <si>
+    <t>E04586</t>
+  </si>
+  <si>
+    <t>E04585</t>
+  </si>
+  <si>
+    <t>E04583</t>
+  </si>
+  <si>
+    <t>E04582</t>
+  </si>
+  <si>
+    <t>E04919</t>
+  </si>
+  <si>
+    <t>E00733</t>
+  </si>
+  <si>
+    <t>E00728</t>
+  </si>
+  <si>
+    <t>E00729</t>
+  </si>
+  <si>
+    <t>E00723</t>
+  </si>
+  <si>
+    <t>E00721</t>
+  </si>
+  <si>
+    <t>E00717</t>
+  </si>
+  <si>
+    <t>E00709</t>
+  </si>
+  <si>
+    <t>E00707</t>
+  </si>
+  <si>
+    <t>E30731</t>
+  </si>
+  <si>
+    <t>E30908</t>
+  </si>
+  <si>
+    <t>E32198</t>
+  </si>
+  <si>
+    <t>E05041</t>
+  </si>
+  <si>
+    <t>E05181</t>
+  </si>
+  <si>
+    <t>E04476</t>
+  </si>
+  <si>
+    <t>E05137</t>
+  </si>
+  <si>
+    <t>E03342</t>
+  </si>
+  <si>
+    <t>E05049</t>
+  </si>
+  <si>
+    <t>E04463</t>
+  </si>
+  <si>
+    <t>E04460</t>
+  </si>
+  <si>
+    <t>E04948</t>
+  </si>
+  <si>
+    <t>E04425</t>
+  </si>
+  <si>
+    <t>E04430</t>
+  </si>
+  <si>
+    <t>E05266</t>
+  </si>
+  <si>
+    <t>E05504</t>
+  </si>
+  <si>
+    <t>E05481</t>
+  </si>
+  <si>
+    <t>E04473</t>
+  </si>
+  <si>
+    <t>E05528</t>
+  </si>
+  <si>
+    <t>E05547</t>
+  </si>
+  <si>
+    <t>E05570</t>
+  </si>
+  <si>
+    <t>E26675</t>
+  </si>
+  <si>
+    <t>E31052</t>
+  </si>
+  <si>
+    <t>E31524</t>
+  </si>
+  <si>
+    <t>E30010</t>
+  </si>
+  <si>
+    <t>E30454</t>
+  </si>
+  <si>
+    <t>E24545</t>
+  </si>
+  <si>
+    <t>E04497</t>
+  </si>
+  <si>
+    <t>E04414</t>
+  </si>
+  <si>
+    <t>E04399</t>
+  </si>
+  <si>
+    <t>E04382</t>
+  </si>
+  <si>
+    <t>E04380</t>
+  </si>
+  <si>
+    <t>E04410</t>
+  </si>
+  <si>
+    <t>E04376</t>
+  </si>
+  <si>
+    <t>E04375</t>
+  </si>
+  <si>
+    <t>E05951</t>
+  </si>
+  <si>
+    <t>E03126</t>
+  </si>
+  <si>
+    <t>E02611</t>
+  </si>
+  <si>
+    <t>E02453</t>
+  </si>
+  <si>
+    <t>E00736</t>
+  </si>
+  <si>
+    <t>E02467</t>
+  </si>
+  <si>
+    <t>E05018</t>
+  </si>
+  <si>
+    <t>E02858</t>
+  </si>
+  <si>
+    <t>E04966</t>
+  </si>
+  <si>
+    <t>E01972</t>
+  </si>
+  <si>
+    <t>E01978</t>
+  </si>
+  <si>
+    <t>E02324</t>
+  </si>
+  <si>
+    <t>E01862</t>
+  </si>
+  <si>
+    <t>E01787</t>
+  </si>
+  <si>
+    <t>E32400</t>
+  </si>
+  <si>
+    <t>E05191</t>
+  </si>
+  <si>
+    <t>E05187</t>
+  </si>
+  <si>
+    <t>E04479</t>
+  </si>
+  <si>
+    <t>E04427</t>
+  </si>
+  <si>
+    <t>E04478</t>
+  </si>
+  <si>
+    <t>E05173</t>
+  </si>
+  <si>
+    <t>E05169</t>
+  </si>
+  <si>
+    <t>E05167</t>
+  </si>
+  <si>
+    <t>E05163</t>
+  </si>
+  <si>
+    <t>E05162</t>
+  </si>
+  <si>
+    <t>E05161</t>
+  </si>
+  <si>
+    <t>E05155</t>
+  </si>
+  <si>
+    <t>E05156</t>
+  </si>
+  <si>
+    <t>E04475</t>
+  </si>
+  <si>
+    <t>E02458</t>
+  </si>
+  <si>
+    <t>E05151</t>
+  </si>
+  <si>
+    <t>E05168</t>
+  </si>
+  <si>
+    <t>E05147</t>
+  </si>
+  <si>
+    <t>E05143</t>
+  </si>
+  <si>
+    <t>E05142</t>
+  </si>
+  <si>
+    <t>E05134</t>
+  </si>
+  <si>
+    <t>E05120</t>
+  </si>
+  <si>
+    <t>E05115</t>
+  </si>
+  <si>
+    <t>E05114</t>
+  </si>
+  <si>
+    <t>E05116</t>
+  </si>
+  <si>
+    <t>E05088</t>
+  </si>
+  <si>
+    <t>E05106</t>
+  </si>
+  <si>
+    <t>E05101</t>
+  </si>
+  <si>
+    <t>E05099</t>
+  </si>
+  <si>
+    <t>E05094</t>
+  </si>
+  <si>
+    <t>E05091</t>
+  </si>
+  <si>
+    <t>E05090</t>
+  </si>
+  <si>
+    <t>E05075</t>
+  </si>
+  <si>
+    <t>E05069</t>
+  </si>
+  <si>
+    <t>E05066</t>
+  </si>
+  <si>
+    <t>E02909</t>
+  </si>
+  <si>
+    <t>E05059</t>
+  </si>
+  <si>
+    <t>E05054</t>
+  </si>
+  <si>
+    <t>E05052</t>
+  </si>
+  <si>
+    <t>E05048</t>
+  </si>
+  <si>
+    <t>E05042</t>
+  </si>
+  <si>
+    <t>E05037</t>
+  </si>
+  <si>
+    <t>E05036</t>
+  </si>
+  <si>
+    <t>E05033</t>
+  </si>
+  <si>
+    <t>E05029</t>
+  </si>
+  <si>
+    <t>E05027</t>
+  </si>
+  <si>
+    <t>E05017</t>
+  </si>
+  <si>
+    <t>E04999</t>
+  </si>
+  <si>
+    <t>E05000</t>
+  </si>
+  <si>
+    <t>E04997</t>
+  </si>
+  <si>
+    <t>E04996</t>
+  </si>
+  <si>
+    <t>E04995</t>
+  </si>
+  <si>
+    <t>E05025</t>
+  </si>
+  <si>
+    <t>E04462</t>
+  </si>
+  <si>
+    <t>E04988</t>
+  </si>
+  <si>
+    <t>E04980</t>
+  </si>
+  <si>
+    <t>E04976</t>
+  </si>
+  <si>
+    <t>E04959</t>
+  </si>
+  <si>
+    <t>E04953</t>
+  </si>
+  <si>
+    <t>E05279</t>
+  </si>
+  <si>
+    <t>E05282</t>
+  </si>
+  <si>
+    <t>E05273</t>
+  </si>
+  <si>
+    <t>E05272</t>
+  </si>
+  <si>
+    <t>E05647</t>
+  </si>
+  <si>
+    <t>E05261</t>
+  </si>
+  <si>
+    <t>E05255</t>
+  </si>
+  <si>
+    <t>E05254</t>
+  </si>
+  <si>
+    <t>E05252</t>
+  </si>
+  <si>
+    <t>E05239</t>
+  </si>
+  <si>
+    <t>E05236</t>
+  </si>
+  <si>
+    <t>E05233</t>
+  </si>
+  <si>
+    <t>E05228</t>
+  </si>
+  <si>
+    <t>E05223</t>
+  </si>
+  <si>
+    <t>E05211</t>
+  </si>
+  <si>
+    <t>E05062</t>
+  </si>
+  <si>
+    <t>E05218</t>
+  </si>
+  <si>
+    <t>E05215</t>
+  </si>
+  <si>
+    <t>E05210</t>
+  </si>
+  <si>
+    <t>E05209</t>
+  </si>
+  <si>
+    <t>E05110</t>
+  </si>
+  <si>
+    <t>E05201</t>
+  </si>
+  <si>
+    <t>E05204</t>
+  </si>
+  <si>
+    <t>E05198</t>
+  </si>
+  <si>
+    <t>E33040</t>
+  </si>
+  <si>
+    <t>E33026</t>
+  </si>
+  <si>
+    <t>E33039</t>
+  </si>
+  <si>
+    <t>E32992</t>
+  </si>
+  <si>
+    <t>E32794</t>
+  </si>
+  <si>
+    <t>E05372</t>
+  </si>
+  <si>
+    <t>E32855</t>
+  </si>
+  <si>
+    <t>E32660</t>
+  </si>
+  <si>
+    <t>E32814</t>
+  </si>
+  <si>
+    <t>E32766</t>
+  </si>
+  <si>
+    <t>E32825</t>
+  </si>
+  <si>
+    <t>E32815</t>
+  </si>
+  <si>
+    <t>E32750</t>
+  </si>
+  <si>
+    <t>E32673</t>
+  </si>
+  <si>
+    <t>E32619</t>
+  </si>
+  <si>
+    <t>E21122</t>
+  </si>
+  <si>
+    <t>E32647</t>
+  </si>
+  <si>
+    <t>E32620</t>
+  </si>
+  <si>
+    <t>E32624</t>
+  </si>
+  <si>
+    <t>E32373</t>
+  </si>
+  <si>
+    <t>E32591</t>
+  </si>
+  <si>
+    <t>E32603</t>
+  </si>
+  <si>
+    <t>E31238</t>
+  </si>
+  <si>
+    <t>E32408</t>
+  </si>
+  <si>
+    <t>E32225</t>
+  </si>
+  <si>
+    <t>E32238</t>
+  </si>
+  <si>
+    <t>E32159</t>
+  </si>
+  <si>
+    <t>E32161</t>
+  </si>
+  <si>
+    <t>E32200</t>
+  </si>
+  <si>
+    <t>E32108</t>
+  </si>
+  <si>
+    <t>E32141</t>
+  </si>
+  <si>
+    <t>E31955</t>
+  </si>
+  <si>
+    <t>E31991</t>
+  </si>
+  <si>
+    <t>E31977</t>
+  </si>
+  <si>
+    <t>E31936</t>
+  </si>
+  <si>
+    <t>E31957</t>
+  </si>
+  <si>
+    <t>E31948</t>
+  </si>
+  <si>
+    <t>E31878</t>
+  </si>
+  <si>
+    <t>E31965</t>
+  </si>
+  <si>
+    <t>E31902</t>
+  </si>
+  <si>
+    <t>E31754</t>
+  </si>
+  <si>
+    <t>E31585</t>
+  </si>
+  <si>
+    <t>E31640</t>
+  </si>
+  <si>
+    <t>E31626</t>
+  </si>
+  <si>
+    <t>E31573</t>
+  </si>
+  <si>
+    <t>E31453</t>
+  </si>
+  <si>
+    <t>E31436</t>
+  </si>
+  <si>
+    <t>E31354</t>
+  </si>
+  <si>
+    <t>E31331</t>
+  </si>
+  <si>
+    <t>E31348</t>
+  </si>
+  <si>
+    <t>E30993</t>
+  </si>
+  <si>
+    <t>E31336</t>
+  </si>
+  <si>
+    <t>E31256</t>
+  </si>
+  <si>
+    <t>E31276</t>
+  </si>
+  <si>
+    <t>E31131</t>
+  </si>
+  <si>
+    <t>E31093</t>
+  </si>
+  <si>
+    <t>E31060</t>
+  </si>
+  <si>
+    <t>E31056</t>
+  </si>
+  <si>
+    <t>E31023</t>
+  </si>
+  <si>
+    <t>E31019</t>
+  </si>
+  <si>
+    <t>E05719</t>
+  </si>
+  <si>
+    <t>E05720</t>
+  </si>
+  <si>
+    <t>E05713</t>
+  </si>
+  <si>
+    <t>E05705</t>
+  </si>
+  <si>
+    <t>E05699</t>
+  </si>
+  <si>
+    <t>E05703</t>
+  </si>
+  <si>
+    <t>E02489</t>
+  </si>
+  <si>
+    <t>E05694</t>
+  </si>
+  <si>
+    <t>E05690</t>
+  </si>
+  <si>
+    <t>E05688</t>
+  </si>
+  <si>
+    <t>E05687</t>
+  </si>
+  <si>
+    <t>E05682</t>
+  </si>
+  <si>
+    <t>E05678</t>
+  </si>
+  <si>
+    <t>E05680</t>
+  </si>
+  <si>
+    <t>E05677</t>
+  </si>
+  <si>
+    <t>E05669</t>
+  </si>
+  <si>
+    <t>E05674</t>
+  </si>
+  <si>
+    <t>E05679</t>
+  </si>
+  <si>
+    <t>E05664</t>
+  </si>
+  <si>
+    <t>E05663</t>
+  </si>
+  <si>
+    <t>E05659</t>
+  </si>
+  <si>
+    <t>E04496</t>
+  </si>
+  <si>
+    <t>E05652</t>
+  </si>
+  <si>
+    <t>E05653</t>
+  </si>
+  <si>
+    <t>E05650</t>
+  </si>
+  <si>
+    <t>E04494</t>
+  </si>
+  <si>
+    <t>E05988</t>
+  </si>
+  <si>
+    <t>E05643</t>
+  </si>
+  <si>
+    <t>E05645</t>
+  </si>
+  <si>
+    <t>E05641</t>
+  </si>
+  <si>
+    <t>E05630</t>
+  </si>
+  <si>
+    <t>E05638</t>
+  </si>
+  <si>
+    <t>E05640</t>
+  </si>
+  <si>
+    <t>E05635</t>
+  </si>
+  <si>
+    <t>E05622</t>
+  </si>
+  <si>
+    <t>E05633</t>
+  </si>
+  <si>
+    <t>E05605</t>
+  </si>
+  <si>
+    <t>E05601</t>
+  </si>
+  <si>
+    <t>E05587</t>
+  </si>
+  <si>
+    <t>E05457</t>
+  </si>
+  <si>
+    <t>E05516</t>
+  </si>
+  <si>
+    <t>E05573</t>
+  </si>
+  <si>
+    <t>E05578</t>
+  </si>
+  <si>
+    <t>E05561</t>
+  </si>
+  <si>
+    <t>E05553</t>
+  </si>
+  <si>
+    <t>E05521</t>
+  </si>
+  <si>
+    <t>E05551</t>
+  </si>
+  <si>
+    <t>E05548</t>
+  </si>
+  <si>
+    <t>E05552</t>
+  </si>
+  <si>
+    <t>E02480</t>
+  </si>
+  <si>
+    <t>E05511</t>
+  </si>
+  <si>
+    <t>E05545</t>
+  </si>
+  <si>
+    <t>E05445</t>
+  </si>
+  <si>
+    <t>E05538</t>
+  </si>
+  <si>
+    <t>E05540</t>
+  </si>
+  <si>
+    <t>E02104</t>
+  </si>
+  <si>
+    <t>E05543</t>
+  </si>
+  <si>
+    <t>E05518</t>
+  </si>
+  <si>
+    <t>E05510</t>
+  </si>
+  <si>
+    <t>E05494</t>
+  </si>
+  <si>
+    <t>E05497</t>
+  </si>
+  <si>
+    <t>E05480</t>
+  </si>
+  <si>
+    <t>E05496</t>
+  </si>
+  <si>
+    <t>E03801</t>
+  </si>
+  <si>
+    <t>E05487</t>
+  </si>
+  <si>
+    <t>E05484</t>
+  </si>
+  <si>
+    <t>E05476</t>
+  </si>
+  <si>
+    <t>E05471</t>
+  </si>
+  <si>
+    <t>E05469</t>
+  </si>
+  <si>
+    <t>E05474</t>
+  </si>
+  <si>
+    <t>E05466</t>
+  </si>
+  <si>
+    <t>E05463</t>
+  </si>
+  <si>
+    <t>E05449</t>
+  </si>
+  <si>
+    <t>E05453</t>
+  </si>
+  <si>
+    <t>E05148</t>
+  </si>
+  <si>
+    <t>E05431</t>
+  </si>
+  <si>
+    <t>E05432</t>
+  </si>
+  <si>
+    <t>E04489</t>
+  </si>
+  <si>
+    <t>E05430</t>
+  </si>
+  <si>
+    <t>E05443</t>
+  </si>
+  <si>
+    <t>E05424</t>
+  </si>
+  <si>
+    <t>E05413</t>
+  </si>
+  <si>
+    <t>E05405</t>
+  </si>
+  <si>
+    <t>E05400</t>
+  </si>
+  <si>
+    <t>E05401</t>
+  </si>
+  <si>
+    <t>E05392</t>
+  </si>
+  <si>
+    <t>E05383</t>
+  </si>
+  <si>
+    <t>E05376</t>
+  </si>
+  <si>
+    <t>E04485</t>
+  </si>
+  <si>
+    <t>E05369</t>
+  </si>
+  <si>
+    <t>E05362</t>
+  </si>
+  <si>
+    <t>E05360</t>
+  </si>
+  <si>
+    <t>E05348</t>
+  </si>
+  <si>
+    <t>E05343</t>
+  </si>
+  <si>
+    <t>E05340</t>
+  </si>
+  <si>
+    <t>E05338</t>
+  </si>
+  <si>
+    <t>E05336</t>
+  </si>
+  <si>
+    <t>E30996</t>
+  </si>
+  <si>
+    <t>E30969</t>
+  </si>
+  <si>
+    <t>E30919</t>
+  </si>
+  <si>
+    <t>E30857</t>
+  </si>
+  <si>
+    <t>E30918</t>
+  </si>
+  <si>
+    <t>E30877</t>
+  </si>
+  <si>
+    <t>E30856</t>
+  </si>
+  <si>
+    <t>E30698</t>
+  </si>
+  <si>
+    <t>E22007</t>
+  </si>
+  <si>
+    <t>E30537</t>
+  </si>
+  <si>
+    <t>E30466</t>
+  </si>
+  <si>
+    <t>E30446</t>
+  </si>
+  <si>
+    <t>E30398</t>
+  </si>
+  <si>
+    <t>E30085</t>
+  </si>
+  <si>
+    <t>E30114</t>
+  </si>
+  <si>
+    <t>E30047</t>
+  </si>
+  <si>
+    <t>E30002</t>
+  </si>
+  <si>
+    <t>E27877</t>
+  </si>
+  <si>
+    <t>E27421</t>
+  </si>
+  <si>
+    <t>E27394</t>
+  </si>
+  <si>
+    <t>E27361</t>
+  </si>
+  <si>
+    <t>E27280</t>
+  </si>
+  <si>
+    <t>E27276</t>
+  </si>
+  <si>
+    <t>E27064</t>
+  </si>
+  <si>
+    <t>E27062</t>
+  </si>
+  <si>
+    <t>E27047</t>
+  </si>
+  <si>
+    <t>E27050</t>
+  </si>
+  <si>
+    <t>E26703</t>
+  </si>
+  <si>
+    <t>E26596</t>
+  </si>
+  <si>
+    <t>E26231</t>
+  </si>
+  <si>
+    <t>E26369</t>
+  </si>
+  <si>
+    <t>E26301</t>
+  </si>
+  <si>
+    <t>E25850</t>
+  </si>
+  <si>
+    <t>E25888</t>
+  </si>
+  <si>
+    <t>E25898</t>
+  </si>
+  <si>
+    <t>E25867</t>
+  </si>
+  <si>
+    <t>E25817</t>
+  </si>
+  <si>
+    <t>E25761</t>
+  </si>
+  <si>
+    <t>E25682</t>
+  </si>
+  <si>
+    <t>E25620</t>
+  </si>
+  <si>
+    <t>E25283</t>
+  </si>
+  <si>
+    <t>E25263</t>
+  </si>
+  <si>
+    <t>E24998</t>
+  </si>
+  <si>
+    <t>E25206</t>
+  </si>
+  <si>
+    <t>E24982</t>
+  </si>
+  <si>
+    <t>E24914</t>
+  </si>
+  <si>
+    <t>E24453</t>
+  </si>
+  <si>
+    <t>E24457</t>
+  </si>
+  <si>
+    <t>E24392</t>
+  </si>
+  <si>
+    <t>E23492</t>
+  </si>
+  <si>
+    <t>E22460</t>
+  </si>
+  <si>
+    <t>E22461</t>
+  </si>
+  <si>
+    <t>E22101</t>
+  </si>
+  <si>
+    <t>E22012</t>
+  </si>
+  <si>
+    <t>E21740</t>
+  </si>
+  <si>
+    <t>E21588</t>
+  </si>
+  <si>
+    <t>E21553</t>
+  </si>
+  <si>
+    <t>E20385</t>
+  </si>
+  <si>
+    <t>E05739</t>
+  </si>
+  <si>
+    <t>E05742</t>
+  </si>
+  <si>
+    <t>E05707</t>
+  </si>
+  <si>
+    <t>E05741</t>
+  </si>
+  <si>
+    <t>E05736</t>
+  </si>
+  <si>
+    <t>E05732</t>
+  </si>
+  <si>
+    <t>E05485</t>
+  </si>
+  <si>
+    <t>E05606</t>
+  </si>
+  <si>
+    <t>E05592</t>
+  </si>
+  <si>
+    <t>E05076</t>
+  </si>
+  <si>
+    <t>E05584</t>
+  </si>
+  <si>
+    <t>E05417</t>
+  </si>
+  <si>
+    <t>E05332</t>
+  </si>
+  <si>
+    <t>E05328</t>
+  </si>
+  <si>
+    <t>E05513</t>
+  </si>
+  <si>
+    <t>E05324</t>
+  </si>
+  <si>
+    <t>E05322</t>
+  </si>
+  <si>
+    <t>E05320</t>
+  </si>
+  <si>
+    <t>E05315</t>
+  </si>
+  <si>
+    <t>E05312</t>
+  </si>
+  <si>
+    <t>E05310</t>
+  </si>
+  <si>
+    <t>E05308</t>
+  </si>
+  <si>
+    <t>E05307</t>
+  </si>
+  <si>
+    <t>E05304</t>
+  </si>
+  <si>
+    <t>E05303</t>
+  </si>
+  <si>
+    <t>E05302</t>
+  </si>
+  <si>
+    <t>E05297</t>
+  </si>
+  <si>
+    <t>E05283</t>
+  </si>
+  <si>
+    <t>E05331</t>
+  </si>
+  <si>
+    <t>E05291</t>
+  </si>
+  <si>
+    <t>E05289</t>
+  </si>
+  <si>
+    <t>E05621</t>
+  </si>
+  <si>
+    <t>E00210</t>
+  </si>
+  <si>
+    <t>E04377</t>
+  </si>
+  <si>
+    <t>E04379</t>
+  </si>
+  <si>
+    <t>E04381</t>
+  </si>
+  <si>
+    <t>E04384</t>
+  </si>
+  <si>
+    <t>E04385</t>
+  </si>
+  <si>
+    <t>E04386</t>
+  </si>
+  <si>
+    <t>E04387</t>
+  </si>
+  <si>
+    <t>E04389</t>
+  </si>
+  <si>
+    <t>E04390</t>
+  </si>
+  <si>
+    <t>E04392</t>
+  </si>
+  <si>
+    <t>E04393</t>
+  </si>
+  <si>
+    <t>E04395</t>
+  </si>
+  <si>
+    <t>E04396</t>
+  </si>
+  <si>
+    <t>E04397</t>
+  </si>
+  <si>
+    <t>E04398</t>
+  </si>
+  <si>
+    <t>E04411</t>
+  </si>
+  <si>
+    <t>E04412</t>
+  </si>
+  <si>
+    <t>E04453</t>
+  </si>
+  <si>
+    <t>E04469</t>
+  </si>
+  <si>
+    <t>E04471</t>
+  </si>
+  <si>
+    <t>E04492</t>
+  </si>
+  <si>
+    <t>E04870</t>
+  </si>
+  <si>
+    <t>E05113</t>
+  </si>
+  <si>
+    <t>E05177</t>
+  </si>
+  <si>
+    <t>E23807</t>
+  </si>
+  <si>
+    <t>E31672</t>
+  </si>
+  <si>
+    <t>E31677</t>
+  </si>
+  <si>
+    <t>E31753</t>
+  </si>
+  <si>
+    <t>E31791</t>
   </si>
 </sst>
 </file>
@@ -529,320 +1714,2298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A408" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A1:A466">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
